--- a/_DOCs/ws.xlsx
+++ b/_DOCs/ws.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\Confe2\_DOCs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B33BE3BE-0C9A-413C-88EF-6EBA932B151C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2119CE69-079A-4AB7-BBA6-B891D1C1CA2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13764" windowHeight="8040" xr2:uid="{92E7474C-DBF9-422C-8A46-30790FC12D63}"/>
   </bookViews>
@@ -30,41 +30,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
-  <si>
-    <t>get_text</t>
-  </si>
-  <si>
-    <t>envia</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>recibe</t>
-  </si>
-  <si>
-    <t>text separado por sibolo</t>
-  </si>
-  <si>
-    <t>get_estado_juegos</t>
-  </si>
-  <si>
     <t>id_grupo</t>
   </si>
   <si>
     <t>Json</t>
   </si>
   <si>
-    <t>juegos bloqueados y desplbloquados 1 - 0</t>
+    <t>Nombre del servicio</t>
+  </si>
+  <si>
+    <t>Datos enviados desde el cliente</t>
+  </si>
+  <si>
+    <t>Datos recibidos del servidor</t>
+  </si>
+  <si>
+    <t>Tipo de datos del servidor</t>
+  </si>
+  <si>
+    <t>Esquema</t>
+  </si>
+  <si>
+    <t>texto plano separado por  caracteres</t>
+  </si>
+  <si>
+    <t>txt_consignas</t>
+  </si>
+  <si>
+    <t>getTextoGranja</t>
+  </si>
+  <si>
+    <t>texto1|texto2|texto3</t>
+  </si>
+  <si>
+    <t>juegos</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>getEstadoJuegos</t>
+  </si>
+  <si>
+    <t>esato es booleano: 1:activados 0 desactivados</t>
+  </si>
+  <si>
+    <t>id_juego: estdo</t>
+  </si>
+  <si>
+    <t>id_usuario</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>getAvanceJuego</t>
+  </si>
+  <si>
+    <t>avance</t>
+  </si>
+  <si>
+    <t>id_juego:avance</t>
+  </si>
+  <si>
+    <t>avance: integer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -92,13 +142,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -109,6 +189,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F55348A0-8C91-48DF-893B-BD8B51EE6446}" name="Table1" displayName="Table1" ref="B5:G13" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="B5:G13" xr:uid="{05AEBC6B-2804-4F0F-B804-2061CF94B04F}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{06A85BD9-390A-4F77-A1CD-61A9C6CCC156}" name="Nombre del servicio"/>
+    <tableColumn id="2" xr3:uid="{803182F8-B80F-49FF-9195-D0ABD81BEB86}" name="Datos enviados desde el cliente"/>
+    <tableColumn id="3" xr3:uid="{9324AF1D-5635-45E0-AE2F-282A7D9D4F34}" name="Datos recibidos del servidor"/>
+    <tableColumn id="4" xr3:uid="{5DDD6189-A5EE-4453-A6EF-D9291C39186B}" name="Tipo de datos del servidor"/>
+    <tableColumn id="5" xr3:uid="{EBEF6516-28FC-418B-8641-28638A468704}" name="Esquema"/>
+    <tableColumn id="6" xr3:uid="{21ED4A76-3F59-47D3-AF56-700C6F970B68}" name="Observaciones" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,60 +503,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081A2071-6B82-4DF7-B58A-E6A87EDE448E}">
-  <dimension ref="C4:E10"/>
+  <dimension ref="B5:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" customWidth="1"/>
+    <col min="5" max="6" width="24.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+    <row r="5" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
       <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>